--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michal\Documents\GitHub\WeatherStation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6656A8F8-1415-41C1-8F5D-37D5CE8E46CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6E5660-4CA5-4ED8-8F4B-7C13041B498E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{376AB033-FE92-4CAD-92FF-0D735FED0594}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9420" xr2:uid="{376AB033-FE92-4CAD-92FF-0D735FED0594}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>Maturitka - BOM</t>
+  </si>
+  <si>
+    <t>ESP32-DEVkit</t>
+  </si>
+  <si>
+    <t>Věc</t>
+  </si>
+  <si>
+    <t>Počet</t>
+  </si>
+  <si>
+    <t>BMP180-modul</t>
+  </si>
+  <si>
+    <t>DHT22</t>
+  </si>
+  <si>
+    <t>ML8511-modul</t>
+  </si>
+  <si>
+    <t>BH1750-modul</t>
+  </si>
+  <si>
+    <t>Reflexní optočlen - TCRT5000</t>
+  </si>
+  <si>
+    <t>200R 1/4W odpor</t>
+  </si>
+  <si>
+    <t>10k 1/4W odpor</t>
+  </si>
+  <si>
+    <t>WK konektor samice</t>
+  </si>
+  <si>
+    <t>WK konektor samec</t>
+  </si>
+  <si>
+    <t>LED zelená indikační - 2x2mm</t>
+  </si>
+  <si>
+    <t>generic NPN tranzistor</t>
+  </si>
+  <si>
+    <t>cca</t>
+  </si>
+  <si>
+    <t>generic kabel napájecí</t>
+  </si>
+  <si>
+    <t>ks</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generic kabel multižilový </t>
+  </si>
+  <si>
+    <t>Jednotka</t>
   </si>
 </sst>
 </file>
@@ -389,17 +449,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4474352A-3E98-41DE-AB1B-1A897A13D141}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
